--- a/data/trans_orig/Q5401-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q5401-Clase-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6651</v>
+        <v>6855</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0318692435844135</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1112584079294481</v>
+        <v>0.1146686801438267</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5992</v>
+        <v>6189</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05924324241035143</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2016865238886822</v>
+        <v>0.2083126349198487</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -786,19 +786,19 @@
         <v>3665</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>937</v>
+        <v>951</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8474</v>
+        <v>9313</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0409564871284271</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01047084897840812</v>
+        <v>0.01062436447614176</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09469141595496867</v>
+        <v>0.1040693518976435</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>9663</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4596</v>
+        <v>4566</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17759</v>
+        <v>17172</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1616394868322019</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0768832148537769</v>
+        <v>0.07636834352397183</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2970457483228117</v>
+        <v>0.2872376024471274</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -836,19 +836,19 @@
         <v>10692</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6049</v>
+        <v>6190</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16305</v>
+        <v>16786</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3598837808860144</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2036158550258017</v>
+        <v>0.2083395363812977</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5488237515058986</v>
+        <v>0.565016464584314</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>18</v>
@@ -857,19 +857,19 @@
         <v>20355</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>13377</v>
+        <v>13268</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>29694</v>
+        <v>30165</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2274499003100843</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1494776495786495</v>
+        <v>0.1482529416800873</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3318005795984211</v>
+        <v>0.337068508326909</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>48215</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>40264</v>
+        <v>41147</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>53730</v>
+        <v>53863</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8064912695833846</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6734913894226856</v>
+        <v>0.6882638477435972</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8987319863135763</v>
+        <v>0.9009570795134341</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>18</v>
@@ -907,19 +907,19 @@
         <v>17257</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12115</v>
+        <v>11466</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>22376</v>
+        <v>22219</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5808729767036342</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4077985866301062</v>
+        <v>0.3859565023727212</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7531809862042375</v>
+        <v>0.7478986577226795</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>62</v>
@@ -928,19 +928,19 @@
         <v>65473</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>55393</v>
+        <v>55501</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>72934</v>
+        <v>73051</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7315936125614886</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6189603446874745</v>
+        <v>0.6201717612592845</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8149708945078495</v>
+        <v>0.8162755378569806</v>
       </c>
     </row>
     <row r="7">
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6159</v>
+        <v>5656</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03511095210124165</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1211643886337642</v>
+        <v>0.1112666935521865</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6604</v>
+        <v>6515</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1470752139368248</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4183643061111</v>
+        <v>0.4126921103810633</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -1074,19 +1074,19 @@
         <v>4106</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9790</v>
+        <v>9345</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06164278769974007</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01726743262480815</v>
+        <v>0.01722389938324543</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1469669400623967</v>
+        <v>0.1402877025148482</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>6307</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2578</v>
+        <v>2662</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12850</v>
+        <v>13186</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1240725500358125</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05071499332588426</v>
+        <v>0.05237473560356547</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2528076497306351</v>
+        <v>0.2594191795601788</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5570</v>
+        <v>6537</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1333392273752403</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.352823831884272</v>
+        <v>0.4141129849628502</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>8</v>
@@ -1145,19 +1145,19 @@
         <v>8411</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3616</v>
+        <v>3820</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>15931</v>
+        <v>16451</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1262684467950397</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05428602489019686</v>
+        <v>0.05734022293640075</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2391465311451771</v>
+        <v>0.2469472888357082</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>42739</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36157</v>
+        <v>35901</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47185</v>
+        <v>47121</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8408164978629459</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7113333395576135</v>
+        <v>0.7062925907042821</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9282811685030523</v>
+        <v>0.927041058171497</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>11359</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6916</v>
+        <v>7011</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14588</v>
+        <v>14585</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7195855586879349</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4380995263048629</v>
+        <v>0.4441438636848836</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9241327284096362</v>
+        <v>0.9239405032657722</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>54</v>
@@ -1216,19 +1216,19 @@
         <v>54098</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46565</v>
+        <v>45722</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>59696</v>
+        <v>59498</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8120887655052202</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6990033248365305</v>
+        <v>0.6863578434900619</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8961199910786727</v>
+        <v>0.8931556946992212</v>
       </c>
     </row>
     <row r="11">
@@ -1323,16 +1323,16 @@
         <v>841</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7104</v>
+        <v>7384</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03705370323254171</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01172371977639392</v>
+        <v>0.01172211644790949</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09900928747602174</v>
+        <v>0.1029009851574517</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7551</v>
+        <v>6586</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09349739396229652</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3110721667900954</v>
+        <v>0.2713111950274529</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -1362,19 +1362,19 @@
         <v>4928</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1735</v>
+        <v>1821</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10559</v>
+        <v>10493</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05132211331888847</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01806547750118877</v>
+        <v>0.018958707792853</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1099567809104402</v>
+        <v>0.1092721284496012</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>12511</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6855</v>
+        <v>7224</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20134</v>
+        <v>19321</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1743603695597189</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09553293339937084</v>
+        <v>0.1006725394435289</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2805943947289669</v>
+        <v>0.2692673991341067</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -1412,19 +1412,19 @@
         <v>4280</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1163</v>
+        <v>1147</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9209</v>
+        <v>9110</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1762957524314191</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04790388458567551</v>
+        <v>0.04725458526500625</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3793729005794141</v>
+        <v>0.375298644113173</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -1433,19 +1433,19 @@
         <v>16791</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10430</v>
+        <v>10346</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25324</v>
+        <v>25380</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1748496153218312</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1086135350055135</v>
+        <v>0.1077396524519782</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2637135649721701</v>
+        <v>0.2642914549177833</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>56584</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>49131</v>
+        <v>49084</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>62831</v>
+        <v>62328</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7885859272077393</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6847112442104686</v>
+        <v>0.6840551959631818</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.875650379691808</v>
+        <v>0.8686407031033103</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>18</v>
@@ -1483,19 +1483,19 @@
         <v>17726</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13138</v>
+        <v>12762</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21948</v>
+        <v>21875</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7302068536062843</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5412239113944538</v>
+        <v>0.5257061144470898</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.90414902751613</v>
+        <v>0.9011452090826428</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>78</v>
@@ -1504,19 +1504,19 @@
         <v>74311</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>65593</v>
+        <v>65146</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>81950</v>
+        <v>81388</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7738282713592803</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6830445680368714</v>
+        <v>0.6783897252657801</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.853374980021011</v>
+        <v>0.8475319106860861</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>19804</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12566</v>
+        <v>11830</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28625</v>
+        <v>28409</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07614667489297865</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04831673754374872</v>
+        <v>0.04548597909857602</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1100653170578061</v>
+        <v>0.1092344650194769</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1629,19 +1629,19 @@
         <v>2883</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7731</v>
+        <v>7541</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03361788567660618</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009805920716962376</v>
+        <v>0.009919331644101321</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09014964601017385</v>
+        <v>0.08793528235536602</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -1650,19 +1650,19 @@
         <v>22686</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14667</v>
+        <v>14971</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>31463</v>
+        <v>32441</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06560104688605432</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0424110208552864</v>
+        <v>0.04329064976808647</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09098062429274775</v>
+        <v>0.09380649857065655</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>45206</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>34758</v>
+        <v>35136</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>59912</v>
+        <v>57759</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1738217117378338</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.133649219587403</v>
+        <v>0.1351023403132667</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2303678592833948</v>
+        <v>0.22208996875901</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>18</v>
@@ -1700,19 +1700,19 @@
         <v>18146</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11726</v>
+        <v>11035</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>26800</v>
+        <v>26342</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2116064116169711</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1367409018378171</v>
+        <v>0.1286870895490611</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3125311426144459</v>
+        <v>0.3071905901204945</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>67</v>
@@ -1721,19 +1721,19 @@
         <v>63352</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>49732</v>
+        <v>50107</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>79386</v>
+        <v>77106</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1831909742214519</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1438085774861536</v>
+        <v>0.1448921420962361</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2295560635208764</v>
+        <v>0.2229629143645939</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>195062</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>180674</v>
+        <v>180847</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>207563</v>
+        <v>207139</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7500316133691876</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6947093831510482</v>
+        <v>0.6953720997206787</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7981000130281427</v>
+        <v>0.7964687891804001</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>67</v>
@@ -1771,19 +1771,19 @@
         <v>64724</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>56291</v>
+        <v>56396</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>71735</v>
+        <v>71719</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7547757027064228</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6564428379188135</v>
+        <v>0.6576650747773579</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.836540382796273</v>
+        <v>0.8363494092151937</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>274</v>
@@ -1792,19 +1792,19 @@
         <v>259786</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>243273</v>
+        <v>245667</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>275486</v>
+        <v>274939</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7512079788924938</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7034584461769913</v>
+        <v>0.7103817773215675</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7966082424214732</v>
+        <v>0.7950266531294912</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>3653</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1066</v>
+        <v>839</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8893</v>
+        <v>8569</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06586374994082365</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.019223190615573</v>
+        <v>0.01513333079426077</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.160337268077605</v>
+        <v>0.1545021846173016</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -1917,19 +1917,19 @@
         <v>10085</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4456</v>
+        <v>4582</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>17692</v>
+        <v>17282</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1047843331370717</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04629213975538117</v>
+        <v>0.04760797029346324</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1838175351489348</v>
+        <v>0.1795512420338097</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>14</v>
@@ -1938,19 +1938,19 @@
         <v>13739</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>7418</v>
+        <v>7065</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>21945</v>
+        <v>21982</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09055541497258109</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04889756773757236</v>
+        <v>0.04656491122566252</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1446468333780998</v>
+        <v>0.1448876889118613</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>9621</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5544</v>
+        <v>5054</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>16514</v>
+        <v>16032</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1734603376596591</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09994950331902965</v>
+        <v>0.09111841787959712</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2977339686718461</v>
+        <v>0.2890433313255285</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>20</v>
@@ -1988,19 +1988,19 @@
         <v>23019</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>15249</v>
+        <v>14846</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>32266</v>
+        <v>32337</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2391553531461235</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1584340951171264</v>
+        <v>0.1542466486595086</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.335232002769708</v>
+        <v>0.3359692628227967</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>30</v>
@@ -2009,19 +2009,19 @@
         <v>32640</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>23389</v>
+        <v>23167</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>43762</v>
+        <v>44264</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2151380100745028</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1541625875983837</v>
+        <v>0.1527031827757088</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2884516758739576</v>
+        <v>0.2917579356552597</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>42191</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>35035</v>
+        <v>36192</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>47611</v>
+        <v>47472</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7606759123995173</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6316659706421888</v>
+        <v>0.652523424647901</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8583960224406342</v>
+        <v>0.8558963785059459</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>62</v>
@@ -2059,19 +2059,19 @@
         <v>63146</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>52940</v>
+        <v>53186</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>71785</v>
+        <v>72453</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6560603137168047</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5500261777550816</v>
+        <v>0.5525845531798654</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7458174373989271</v>
+        <v>0.7527619282746437</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>107</v>
@@ -2080,19 +2080,19 @@
         <v>105337</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>93551</v>
+        <v>94016</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>116862</v>
+        <v>117099</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.694306574952916</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6166209112757794</v>
+        <v>0.6196853096726194</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7702743155906701</v>
+        <v>0.7718333911699481</v>
       </c>
     </row>
     <row r="23">
@@ -2197,19 +2197,19 @@
         <v>29640</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>19144</v>
+        <v>19445</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>40372</v>
+        <v>41952</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06973068143363369</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04503637384419849</v>
+        <v>0.04574634138553012</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09497697869262613</v>
+        <v>0.09869508186442848</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>27</v>
@@ -2218,19 +2218,19 @@
         <v>29640</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>20025</v>
+        <v>20243</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>42159</v>
+        <v>41997</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06913782253433338</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.046710085502188</v>
+        <v>0.04721779094654297</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0983386093868156</v>
+        <v>0.09795946539585591</v>
       </c>
     </row>
     <row r="25">
@@ -2268,19 +2268,19 @@
         <v>99711</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>82075</v>
+        <v>81615</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>117756</v>
+        <v>119479</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2345759527973488</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1930862593424674</v>
+        <v>0.1920030217706402</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2770270327157586</v>
+        <v>0.2810815412528028</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>93</v>
@@ -2289,19 +2289,19 @@
         <v>100626</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>83455</v>
+        <v>83360</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>117741</v>
+        <v>119446</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.234714387899186</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1946630905481538</v>
+        <v>0.1944422424362115</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2746366100770682</v>
+        <v>0.278614167524346</v>
       </c>
     </row>
     <row r="26">
@@ -2339,19 +2339,19 @@
         <v>295718</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>275622</v>
+        <v>275903</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>313932</v>
+        <v>314997</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6956933657690175</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6484166829921995</v>
+        <v>0.6490763408484871</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7385428248794081</v>
+        <v>0.7410473620681473</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>296</v>
@@ -2360,19 +2360,19 @@
         <v>298449</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>280993</v>
+        <v>276908</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>317577</v>
+        <v>317537</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6961477895664807</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6554310359600045</v>
+        <v>0.6459027367738396</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7407643769370185</v>
+        <v>0.7406721448533988</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>29806</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>20305</v>
+        <v>21441</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>41501</v>
+        <v>40266</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05942669476532943</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04048492570428053</v>
+        <v>0.0427503306846885</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08274437911440746</v>
+        <v>0.0802823051976035</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>46</v>
@@ -2485,19 +2485,19 @@
         <v>48960</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>35819</v>
+        <v>37059</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>65019</v>
+        <v>65040</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07233614551362993</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05292074183494461</v>
+        <v>0.05475229406411029</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09606210838512809</v>
+        <v>0.09609313802415333</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>78</v>
@@ -2506,19 +2506,19 @@
         <v>78766</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>63079</v>
+        <v>61695</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>96509</v>
+        <v>95798</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06684158872658885</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05352984518654622</v>
+        <v>0.05235506074671369</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08189902180892376</v>
+        <v>0.08129537760167925</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>84223</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>68285</v>
+        <v>69185</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>100169</v>
+        <v>102386</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.167924694936714</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1361477035942524</v>
+        <v>0.1379426651623639</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.199718699607194</v>
+        <v>0.2041397229741332</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>146</v>
@@ -2556,19 +2556,19 @@
         <v>157952</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>134168</v>
+        <v>136621</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>179763</v>
+        <v>180706</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2333658042536964</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1982270882978441</v>
+        <v>0.201850240510784</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.265590785662426</v>
+        <v>0.266983415648398</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>234</v>
@@ -2577,19 +2577,19 @@
         <v>242175</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>216060</v>
+        <v>217996</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>273555</v>
+        <v>273017</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2055125749909054</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1833516554856406</v>
+        <v>0.1849943849467092</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2321422686168711</v>
+        <v>0.2316855674835332</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>387523</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>369753</v>
+        <v>368238</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>404610</v>
+        <v>405735</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.7726486102979566</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7372190327102294</v>
+        <v>0.7341993926532663</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.806717083002192</v>
+        <v>0.8089604544574611</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>469</v>
@@ -2627,19 +2627,19 @@
         <v>469930</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>445142</v>
+        <v>444283</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>495122</v>
+        <v>493120</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.6942980502326737</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.6576742286959046</v>
+        <v>0.6564059367411272</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7315172164839109</v>
+        <v>0.7285604723743735</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>871</v>
@@ -2648,19 +2648,19 @@
         <v>857453</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>825762</v>
+        <v>824603</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>886507</v>
+        <v>885478</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.7276458362825058</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7007522343341321</v>
+        <v>0.6997687948250075</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.7523018465130058</v>
+        <v>0.7514282067765645</v>
       </c>
     </row>
     <row r="31">
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5551</v>
+        <v>5355</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02378456403225312</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1263865410957944</v>
+        <v>0.1219258990541173</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5819</v>
+        <v>5530</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0434799700497733</v>
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2301038571679725</v>
+        <v>0.2186913772487411</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7613</v>
+        <v>7494</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03098152699325197</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1100018579113087</v>
+        <v>0.1082896679090921</v>
       </c>
     </row>
     <row r="5">
@@ -3065,19 +3065,19 @@
         <v>6313</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2154</v>
+        <v>2090</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13596</v>
+        <v>12833</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1437472242229275</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04904047052846024</v>
+        <v>0.04758998666280237</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3095776954754567</v>
+        <v>0.292212862311035</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6685</v>
+        <v>7246</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08546881489458343</v>
@@ -3098,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2643404961315529</v>
+        <v>0.2865315234070673</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -3107,19 +3107,19 @@
         <v>8475</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3283</v>
+        <v>3164</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>15967</v>
+        <v>16465</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1224515193773956</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04743526935399421</v>
+        <v>0.04571146184318143</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2307067928991295</v>
+        <v>0.2379094366371839</v>
       </c>
     </row>
     <row r="6">
@@ -3136,19 +3136,19 @@
         <v>36560</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>29179</v>
+        <v>29018</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>40810</v>
+        <v>40784</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8324682117448193</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6643882203596047</v>
+        <v>0.6607230812315259</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9292426602414361</v>
+        <v>0.9286381737039281</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -3157,19 +3157,19 @@
         <v>22028</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>16454</v>
+        <v>16931</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>24268</v>
+        <v>24282</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8710512150556433</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6506516592210151</v>
+        <v>0.669519255198077</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.959613411003704</v>
+        <v>0.9601777032494719</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>51</v>
@@ -3178,19 +3178,19 @@
         <v>58588</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>50378</v>
+        <v>50073</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>63972</v>
+        <v>64044</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8465669536293524</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7279334197516929</v>
+        <v>0.7235269524088253</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9243594909757514</v>
+        <v>0.9253920199498086</v>
       </c>
     </row>
     <row r="7">
@@ -3282,19 +3282,19 @@
         <v>5429</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1098</v>
+        <v>1939</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13333</v>
+        <v>13701</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08953576385232512</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01810861611848959</v>
+        <v>0.03198250255919223</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2199151364764612</v>
+        <v>0.2259726397720092</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -3303,19 +3303,19 @@
         <v>3322</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1029</v>
+        <v>1006</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7998</v>
+        <v>8018</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.175742536619114</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05443588717785641</v>
+        <v>0.05321299034797921</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.423140986878874</v>
+        <v>0.42417741521703</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -3324,19 +3324,19 @@
         <v>8750</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3324</v>
+        <v>3942</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>16324</v>
+        <v>17540</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1100238426287884</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04180005071367995</v>
+        <v>0.04957076991156328</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2052547990346413</v>
+        <v>0.2205469096444779</v>
       </c>
     </row>
     <row r="9">
@@ -3353,19 +3353,19 @@
         <v>4082</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>999</v>
+        <v>1014</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9358</v>
+        <v>9828</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06732506693864652</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01647254275811269</v>
+        <v>0.01672014425353362</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1543380286379776</v>
+        <v>0.1620903088097354</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -3374,19 +3374,19 @@
         <v>5486</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1938</v>
+        <v>1947</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10331</v>
+        <v>10726</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2902339110614366</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1025089984216228</v>
+        <v>0.1030117586584123</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5465653930189169</v>
+        <v>0.5674313524624296</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>9</v>
@@ -3395,19 +3395,19 @@
         <v>9568</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4751</v>
+        <v>4867</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>16646</v>
+        <v>17472</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1203020409255156</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05973318275853737</v>
+        <v>0.06120206844070276</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2092991054251116</v>
+        <v>0.2196876970394312</v>
       </c>
     </row>
     <row r="10">
@@ -3424,19 +3424,19 @@
         <v>51120</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>43258</v>
+        <v>42552</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56491</v>
+        <v>56286</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8431391692090283</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7134683003894507</v>
+        <v>0.7018321028837086</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9317336225514672</v>
+        <v>0.9283489048196371</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -3445,19 +3445,19 @@
         <v>10094</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5462</v>
+        <v>5496</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14512</v>
+        <v>14835</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5340235523194494</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2889659307063261</v>
+        <v>0.2907525533271887</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7677414927041089</v>
+        <v>0.7848540099908562</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>52</v>
@@ -3466,19 +3466,19 @@
         <v>61213</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>51736</v>
+        <v>51669</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>68372</v>
+        <v>68259</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7696741164456959</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6505187387246923</v>
+        <v>0.6496747144739369</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8596888379731803</v>
+        <v>0.8582657918786549</v>
       </c>
     </row>
     <row r="11">
@@ -3570,19 +3570,19 @@
         <v>7040</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2956</v>
+        <v>2837</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13403</v>
+        <v>12981</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05933083262010645</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02490903415147525</v>
+        <v>0.02391184038717346</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1129582132889609</v>
+        <v>0.1093993670919628</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -3591,19 +3591,19 @@
         <v>6379</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2190</v>
+        <v>2234</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11881</v>
+        <v>12461</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1168069297509692</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04010259261429504</v>
+        <v>0.04089888582012997</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2175442092872257</v>
+        <v>0.2281526480055963</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>13</v>
@@ -3612,19 +3612,19 @@
         <v>13419</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7947</v>
+        <v>7118</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>21789</v>
+        <v>21769</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07744744826775556</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04586642737069353</v>
+        <v>0.04107927260587127</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.125750671425058</v>
+        <v>0.1256368816356662</v>
       </c>
     </row>
     <row r="13">
@@ -3641,19 +3641,19 @@
         <v>17376</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9674</v>
+        <v>9421</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28409</v>
+        <v>28703</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1464406184901208</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08153420155269661</v>
+        <v>0.07939790368932083</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2394320405484215</v>
+        <v>0.2419030657464783</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -3662,19 +3662,19 @@
         <v>10484</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5298</v>
+        <v>5493</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17578</v>
+        <v>16785</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1919588582843143</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0970064451044611</v>
+        <v>0.1005827331411473</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3218542953929902</v>
+        <v>0.3073351831093752</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -3683,19 +3683,19 @@
         <v>27859</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>18362</v>
+        <v>18169</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>40553</v>
+        <v>41038</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1607880863328204</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1059757897372113</v>
+        <v>0.1048607272828535</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2340499815216524</v>
+        <v>0.2368441430473159</v>
       </c>
     </row>
     <row r="14">
@@ -3712,19 +3712,19 @@
         <v>94238</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>82702</v>
+        <v>82392</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>102906</v>
+        <v>103286</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7942285488897728</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6970100124138416</v>
+        <v>0.6943986264971878</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8672817764946549</v>
+        <v>0.8704906029946842</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>36</v>
@@ -3733,19 +3733,19 @@
         <v>37752</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>30339</v>
+        <v>30164</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>44339</v>
+        <v>44173</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6912342119647165</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5555100666684536</v>
+        <v>0.5523017355009177</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8118472062289249</v>
+        <v>0.8088116942620415</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>118</v>
@@ -3754,19 +3754,19 @@
         <v>131989</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>117021</v>
+        <v>117462</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>143187</v>
+        <v>143207</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7617644653994241</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6753733112966422</v>
+        <v>0.6779218203473535</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.82639290267</v>
+        <v>0.826506912740405</v>
       </c>
     </row>
     <row r="15">
@@ -3858,19 +3858,19 @@
         <v>28828</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18321</v>
+        <v>19939</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>41284</v>
+        <v>40578</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1243894857996926</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07905452603187617</v>
+        <v>0.08603764363359676</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1781368638114118</v>
+        <v>0.1750931495152051</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -3879,19 +3879,19 @@
         <v>4333</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1063</v>
+        <v>1092</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9754</v>
+        <v>9447</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07210722121003045</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01768591295485282</v>
+        <v>0.01817229826837331</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1623099325055044</v>
+        <v>0.1572053296067548</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>29</v>
@@ -3900,19 +3900,19 @@
         <v>33161</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21294</v>
+        <v>23503</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>46093</v>
+        <v>46694</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1136239039997879</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07296423992539465</v>
+        <v>0.08053147452726016</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.157933460527429</v>
+        <v>0.1599931894487282</v>
       </c>
     </row>
     <row r="17">
@@ -3929,19 +3929,19 @@
         <v>36590</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26358</v>
+        <v>25525</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>50034</v>
+        <v>49220</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1578844536931742</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1137324887747533</v>
+        <v>0.1101370810933112</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2158947271085115</v>
+        <v>0.2123800632277986</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -3950,19 +3950,19 @@
         <v>15825</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9183</v>
+        <v>9672</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24252</v>
+        <v>23782</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2633282627010387</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.152811676218003</v>
+        <v>0.1609477763586876</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4035555666326684</v>
+        <v>0.3957324301606142</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>47</v>
@@ -3971,19 +3971,19 @@
         <v>52415</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>40210</v>
+        <v>39044</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>67239</v>
+        <v>66959</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1795966721687326</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1377779503144992</v>
+        <v>0.1337810386937469</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2303918494926833</v>
+        <v>0.2294293872672458</v>
       </c>
     </row>
     <row r="18">
@@ -4000,19 +4000,19 @@
         <v>166335</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>150579</v>
+        <v>151516</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>180417</v>
+        <v>180770</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7177260605071332</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6497377760573783</v>
+        <v>0.6537843662194384</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7784879652747839</v>
+        <v>0.7800124570615241</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>39</v>
@@ -4021,19 +4021,19 @@
         <v>39937</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>31828</v>
+        <v>32034</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>47358</v>
+        <v>46426</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6645645160889309</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5296289764913289</v>
+        <v>0.533055841817584</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7880519228969614</v>
+        <v>0.7725456502950984</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>196</v>
@@ -4042,19 +4042,19 @@
         <v>206272</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>189883</v>
+        <v>190024</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>222372</v>
+        <v>222180</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7067794238314795</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6506228124494284</v>
+        <v>0.6511061217351294</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7619434665884696</v>
+        <v>0.7612857755746053</v>
       </c>
     </row>
     <row r="19">
@@ -4146,19 +4146,19 @@
         <v>12590</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6989</v>
+        <v>7101</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>20154</v>
+        <v>20116</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1225933643976385</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06805416859297456</v>
+        <v>0.06914874707827218</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1962521800839752</v>
+        <v>0.1958826481714754</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>27</v>
@@ -4167,19 +4167,19 @@
         <v>30133</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>20599</v>
+        <v>20194</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>41978</v>
+        <v>41253</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1599424467607929</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1093374535665182</v>
+        <v>0.1071887598026454</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2228111016049971</v>
+        <v>0.2189675284642718</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>39</v>
@@ -4188,19 +4188,19 @@
         <v>42723</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>31606</v>
+        <v>31377</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>57297</v>
+        <v>56679</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1467660700098942</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1085747269982956</v>
+        <v>0.1077885590801948</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1968313962954278</v>
+        <v>0.1947084033116356</v>
       </c>
     </row>
     <row r="21">
@@ -4217,19 +4217,19 @@
         <v>19349</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>12113</v>
+        <v>12640</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>28242</v>
+        <v>29400</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1884065589551691</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1179511627748846</v>
+        <v>0.1230854736893591</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2750065683023254</v>
+        <v>0.2862839084048091</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>41</v>
@@ -4238,19 +4238,19 @@
         <v>43767</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>33887</v>
+        <v>33026</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>58089</v>
+        <v>57886</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2323067947852503</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1798690663478518</v>
+        <v>0.1752988421472557</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3083256692937733</v>
+        <v>0.3072480943903509</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>59</v>
@@ -4259,19 +4259,19 @@
         <v>63115</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>49424</v>
+        <v>49790</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>77344</v>
+        <v>79663</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2168192376579806</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1697846191460514</v>
+        <v>0.1710415822902</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2657000266038563</v>
+        <v>0.2736674430944913</v>
       </c>
     </row>
     <row r="22">
@@ -4288,19 +4288,19 @@
         <v>70758</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>61007</v>
+        <v>61647</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>80028</v>
+        <v>80115</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6890000766471923</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5940590416178372</v>
+        <v>0.6002894864503633</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7792722872979361</v>
+        <v>0.7801133586464597</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>109</v>
@@ -4309,19 +4309,19 @@
         <v>114500</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>100623</v>
+        <v>98702</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>128525</v>
+        <v>126964</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6077507584539569</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5340921233952196</v>
+        <v>0.5238960333075972</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6821926757673714</v>
+        <v>0.6739086011687034</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>175</v>
@@ -4330,19 +4330,19 @@
         <v>185258</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>167949</v>
+        <v>168466</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>200512</v>
+        <v>202458</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6364146923321252</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.576954836361237</v>
+        <v>0.5787293280886651</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6888184796441574</v>
+        <v>0.6955026336838465</v>
       </c>
     </row>
     <row r="23">
@@ -4447,19 +4447,19 @@
         <v>50340</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>37104</v>
+        <v>38615</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>64860</v>
+        <v>66218</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1275374941610517</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09400540977408219</v>
+        <v>0.09783318163015432</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1643250128334768</v>
+        <v>0.1677650591679986</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>45</v>
@@ -4468,19 +4468,19 @@
         <v>50340</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>38362</v>
+        <v>37847</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>66297</v>
+        <v>65051</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1268984356287874</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09670399578544329</v>
+        <v>0.09540590724186714</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1671251101416841</v>
+        <v>0.163984855847997</v>
       </c>
     </row>
     <row r="25">
@@ -4510,19 +4510,19 @@
         <v>74118</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>58671</v>
+        <v>58808</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>90732</v>
+        <v>88566</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1877804475313101</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1486460318495667</v>
+        <v>0.1489918705102868</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2298728553435108</v>
+        <v>0.2243859797863618</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>70</v>
@@ -4531,19 +4531,19 @@
         <v>74118</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>57668</v>
+        <v>59865</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>90548</v>
+        <v>90575</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1868395266046707</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1453725533931021</v>
+        <v>0.1509100698150643</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2282571132240628</v>
+        <v>0.2283249848740518</v>
       </c>
     </row>
     <row r="26">
@@ -4573,19 +4573,19 @@
         <v>270247</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>251743</v>
+        <v>249702</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>288720</v>
+        <v>287431</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6846820583076382</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6378008257000826</v>
+        <v>0.6326322716251692</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7314861113293862</v>
+        <v>0.728218233087753</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>255</v>
@@ -4594,19 +4594,19 @@
         <v>272235</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>251841</v>
+        <v>252328</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>290514</v>
+        <v>289584</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6862620377665418</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6348534753000558</v>
+        <v>0.6360791470760663</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7323402402076887</v>
+        <v>0.7299965510718316</v>
       </c>
     </row>
     <row r="27">
@@ -4698,19 +4698,19 @@
         <v>54930</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>41084</v>
+        <v>42349</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>71975</v>
+        <v>72401</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0981534888294642</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07341173984082779</v>
+        <v>0.07567154546807385</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1286104641242176</v>
+        <v>0.1293721925639718</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>86</v>
@@ -4719,19 +4719,19 @@
         <v>95607</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>78078</v>
+        <v>75864</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>119878</v>
+        <v>115266</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1288493168348522</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.105225215770942</v>
+        <v>0.1022423625976183</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1615591690840713</v>
+        <v>0.1553435683441114</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>135</v>
@@ -4740,19 +4740,19 @@
         <v>150537</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>128246</v>
+        <v>127454</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>177532</v>
+        <v>176998</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1156517387092558</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09852615958855208</v>
+        <v>0.09791811982901515</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1363904878963565</v>
+        <v>0.1359804351236943</v>
       </c>
     </row>
     <row r="29">
@@ -4769,19 +4769,19 @@
         <v>83709</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>68244</v>
+        <v>66315</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>104482</v>
+        <v>104273</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1495779131260853</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1219434865830812</v>
+        <v>0.1184968755747604</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1866965547753222</v>
+        <v>0.1863219281191746</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>142</v>
@@ -4790,19 +4790,19 @@
         <v>151840</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>130285</v>
+        <v>130250</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>175401</v>
+        <v>174334</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2046350638116175</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1755848854180144</v>
+        <v>0.1755378209948018</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2363881420846943</v>
+        <v>0.2349498710197285</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>215</v>
@@ -4811,19 +4811,19 @@
         <v>235550</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>207860</v>
+        <v>206657</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>265388</v>
+        <v>263919</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1809634089073257</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1596902453226177</v>
+        <v>0.1587666685905442</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2038874141219638</v>
+        <v>0.2027581734556423</v>
       </c>
     </row>
     <row r="30">
@@ -4840,19 +4840,19 @@
         <v>420997</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>398432</v>
+        <v>397822</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>441159</v>
+        <v>443466</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.7522685980444506</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7119470267056931</v>
+        <v>0.7108565115439353</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.7882950058111217</v>
+        <v>0.7924168999789841</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>465</v>
@@ -4861,19 +4861,19 @@
         <v>494558</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>468659</v>
+        <v>469690</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>521934</v>
+        <v>522247</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.6665156193535303</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.6316118788245908</v>
+        <v>0.633001208755109</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7034098390787382</v>
+        <v>0.7038318070290837</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>847</v>
@@ -4882,19 +4882,19 @@
         <v>915555</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>882768</v>
+        <v>882857</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>950624</v>
+        <v>951081</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.7033848523834185</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.67819604292001</v>
+        <v>0.6782637267790349</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.7303266512118454</v>
+        <v>0.7306775002511794</v>
       </c>
     </row>
     <row r="31">
@@ -5244,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6966</v>
+        <v>6476</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03729599306543466</v>
@@ -5253,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1888309395310173</v>
+        <v>0.1755555548761533</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -5265,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6956</v>
+        <v>7046</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01303626473287373</v>
@@ -5274,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06590828906465615</v>
+        <v>0.06676355562504785</v>
       </c>
     </row>
     <row r="5">
@@ -5291,19 +5291,19 @@
         <v>7028</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2942</v>
+        <v>3259</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13301</v>
+        <v>13460</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1023809512653202</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04285187916875061</v>
+        <v>0.04747813623614366</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1937533062594473</v>
+        <v>0.1960717883614655</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -5312,19 +5312,19 @@
         <v>5570</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1186</v>
+        <v>1220</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12150</v>
+        <v>12444</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1509978053364035</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03214902491407451</v>
+        <v>0.03308175081223847</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.329376786242173</v>
+        <v>0.3373536592604547</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -5333,19 +5333,19 @@
         <v>12598</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6472</v>
+        <v>6135</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>21518</v>
+        <v>20389</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1193742561235172</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06132221307865161</v>
+        <v>0.05813680572820772</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.203891392873513</v>
+        <v>0.1931928783395604</v>
       </c>
     </row>
     <row r="6">
@@ -5362,19 +5362,19 @@
         <v>61619</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>55346</v>
+        <v>55187</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>65705</v>
+        <v>65388</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8976190487346798</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8062466937405527</v>
+        <v>0.8039282116385346</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9571481208312494</v>
+        <v>0.9525218637638563</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>24</v>
@@ -5383,19 +5383,19 @@
         <v>29942</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>22100</v>
+        <v>22906</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>34559</v>
+        <v>34432</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8117062015981619</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5991060789542907</v>
+        <v>0.6209648319665626</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9368529789300143</v>
+        <v>0.9334304748381647</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>84</v>
@@ -5404,19 +5404,19 @@
         <v>91561</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>82634</v>
+        <v>83387</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>97919</v>
+        <v>98451</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8675894791436091</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7830013132715269</v>
+        <v>0.7901367532096908</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9278324569621562</v>
+        <v>0.9328800208362212</v>
       </c>
     </row>
     <row r="7">
@@ -5508,19 +5508,19 @@
         <v>5514</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1883</v>
+        <v>2362</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10465</v>
+        <v>10843</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1033595415273569</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03529703730084698</v>
+        <v>0.04428016138247504</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1961733245071542</v>
+        <v>0.2032674613123829</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -5532,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5638</v>
+        <v>5618</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0717301419486993</v>
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.320543428582608</v>
+        <v>0.3194465677654527</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -5550,19 +5550,19 @@
         <v>6775</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2897</v>
+        <v>2696</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12607</v>
+        <v>12628</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09551678672482104</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0408410927756209</v>
+        <v>0.03800268980438259</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1777275872438246</v>
+        <v>0.1780336727912142</v>
       </c>
     </row>
     <row r="9">
@@ -5579,19 +5579,19 @@
         <v>2680</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7307</v>
+        <v>7535</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05023532101365133</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01444074413032243</v>
+        <v>0.01452774216193419</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1369876615838497</v>
+        <v>0.1412489925553385</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -5600,19 +5600,19 @@
         <v>4297</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1050</v>
+        <v>1167</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9534</v>
+        <v>9245</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2442863612193042</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05971033144158167</v>
+        <v>0.06634279162794139</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5420675703435649</v>
+        <v>0.5256564104049138</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>7</v>
@@ -5621,19 +5621,19 @@
         <v>6976</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3046</v>
+        <v>2871</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>13030</v>
+        <v>13281</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09835178062981453</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04294481565975582</v>
+        <v>0.04047251665356612</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1836915724211899</v>
+        <v>0.1872305337863162</v>
       </c>
     </row>
     <row r="10">
@@ -5650,19 +5650,19 @@
         <v>45151</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39574</v>
+        <v>39453</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49536</v>
+        <v>49142</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8464051374589917</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7418552868939059</v>
+        <v>0.7395870343763938</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9286139637929767</v>
+        <v>0.9212372802338462</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -5671,19 +5671,19 @@
         <v>12030</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7088</v>
+        <v>7598</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15573</v>
+        <v>15525</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6839834968319966</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.402996118145475</v>
+        <v>0.4319968446999534</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8854307299433889</v>
+        <v>0.882710764414312</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>55</v>
@@ -5692,19 +5692,19 @@
         <v>57181</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>49831</v>
+        <v>50528</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>63001</v>
+        <v>63408</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8061314326453645</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7025207759370928</v>
+        <v>0.7123384033937836</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8881874668047929</v>
+        <v>0.8939247864272931</v>
       </c>
     </row>
     <row r="11">
@@ -5796,19 +5796,19 @@
         <v>6741</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2925</v>
+        <v>2952</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13651</v>
+        <v>12925</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0560545389066234</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0243183166776788</v>
+        <v>0.02454298944463449</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1135099663021947</v>
+        <v>0.1074741451976602</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7752</v>
+        <v>6719</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02890344844279069</v>
@@ -5829,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1677619643326369</v>
+        <v>0.145399126396762</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -5838,19 +5838,19 @@
         <v>8077</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3782</v>
+        <v>3369</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>15425</v>
+        <v>15752</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04851791672751563</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02271594973211026</v>
+        <v>0.02023587768991064</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09265644044462068</v>
+        <v>0.09462120648660045</v>
       </c>
     </row>
     <row r="13">
@@ -5867,19 +5867,19 @@
         <v>8844</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4854</v>
+        <v>4778</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15276</v>
+        <v>14656</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07353978513008838</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04036364122488607</v>
+        <v>0.03972787725781022</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1270229191953137</v>
+        <v>0.12187066617632</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -5888,19 +5888,19 @@
         <v>10447</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4707</v>
+        <v>4457</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18592</v>
+        <v>18299</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2260743111820498</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1018663452956126</v>
+        <v>0.09644838257049411</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4023552584142659</v>
+        <v>0.3960067302963888</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -5909,19 +5909,19 @@
         <v>19291</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12180</v>
+        <v>12111</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29002</v>
+        <v>29546</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1158804452098097</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07316665206072556</v>
+        <v>0.07275264537522387</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.174217116640197</v>
+        <v>0.1774857220398059</v>
       </c>
     </row>
     <row r="14">
@@ -5938,19 +5938,19 @@
         <v>104676</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>96939</v>
+        <v>97126</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>110648</v>
+        <v>110439</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8704056759632882</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8060712245999624</v>
+        <v>0.8076230214099203</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9200661818219353</v>
+        <v>0.9183303026774586</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>28</v>
@@ -5959,19 +5959,19 @@
         <v>34427</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26789</v>
+        <v>26804</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>41112</v>
+        <v>41059</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7450222403751595</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5797371750923814</v>
+        <v>0.5800513241010412</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8896965044927838</v>
+        <v>0.8885563219622333</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>138</v>
@@ -5980,19 +5980,19 @@
         <v>139103</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>128542</v>
+        <v>128172</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>148030</v>
+        <v>147050</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8356016380626746</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7721627601059371</v>
+        <v>0.7699423249378071</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8892288870733213</v>
+        <v>0.8833444271631552</v>
       </c>
     </row>
     <row r="15">
@@ -6084,19 +6084,19 @@
         <v>18970</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12699</v>
+        <v>12575</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28949</v>
+        <v>27232</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09305365756361349</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06229507117963588</v>
+        <v>0.06168342797905255</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1420064060320347</v>
+        <v>0.1335828281105399</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -6105,19 +6105,19 @@
         <v>3878</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1260</v>
+        <v>1239</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10662</v>
+        <v>10100</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03915093331823617</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01272314594728005</v>
+        <v>0.0125113009177686</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1076441069882399</v>
+        <v>0.1019761671393639</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>25</v>
@@ -6126,19 +6126,19 @@
         <v>22847</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14618</v>
+        <v>15160</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>33194</v>
+        <v>33131</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07542797951928656</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04826121554688793</v>
+        <v>0.05004810859553675</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1095872935183664</v>
+        <v>0.1093778171456549</v>
       </c>
     </row>
     <row r="17">
@@ -6155,19 +6155,19 @@
         <v>20271</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13150</v>
+        <v>13772</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>29065</v>
+        <v>30469</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09943707701008216</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06450873037401859</v>
+        <v>0.06755869225965135</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1425771841427358</v>
+        <v>0.1494624556225918</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>21</v>
@@ -6176,19 +6176,19 @@
         <v>27302</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17580</v>
+        <v>18075</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>38000</v>
+        <v>39305</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2756447153824096</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1774947504458885</v>
+        <v>0.1824896770086354</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3836584809127884</v>
+        <v>0.3968341767847643</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>44</v>
@@ -6197,19 +6197,19 @@
         <v>47572</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>35526</v>
+        <v>34721</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>62055</v>
+        <v>60313</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1570552984707198</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1172845294043672</v>
+        <v>0.1146285166747307</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.204869003335332</v>
+        <v>0.1991169853201629</v>
       </c>
     </row>
     <row r="18">
@@ -6226,19 +6226,19 @@
         <v>164616</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>154231</v>
+        <v>153619</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>174747</v>
+        <v>174806</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8075092654263043</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7565669419086104</v>
+        <v>0.7535658206732281</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8572072026603091</v>
+        <v>0.8574979744658311</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>60</v>
@@ -6247,19 +6247,19 @@
         <v>67867</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>57053</v>
+        <v>55651</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>78072</v>
+        <v>77044</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6852043512993542</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5760242769066011</v>
+        <v>0.5618714334745657</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7882444453565008</v>
+        <v>0.7778605488378953</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>233</v>
@@ -6268,19 +6268,19 @@
         <v>232482</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>216279</v>
+        <v>217968</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>247001</v>
+        <v>247783</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7675167220099937</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.714022812508587</v>
+        <v>0.7196001146254858</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8154475110681295</v>
+        <v>0.8180310856194626</v>
       </c>
     </row>
     <row r="19">
@@ -6372,19 +6372,19 @@
         <v>14658</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8343</v>
+        <v>8641</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>22015</v>
+        <v>22949</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1009357511273975</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05745328026249229</v>
+        <v>0.05950372547463925</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1515962965148042</v>
+        <v>0.1580292537616166</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -6393,19 +6393,19 @@
         <v>9033</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3865</v>
+        <v>3900</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16552</v>
+        <v>17142</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05661748040606611</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02422185550824528</v>
+        <v>0.02444651746748056</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1037431185476454</v>
+        <v>0.1074394011052913</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>23</v>
@@ -6414,19 +6414,19 @@
         <v>23691</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>15017</v>
+        <v>15835</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>34547</v>
+        <v>36538</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07773475566551145</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04927159283476265</v>
+        <v>0.05195555058657534</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1133542854015786</v>
+        <v>0.1198879432334826</v>
       </c>
     </row>
     <row r="21">
@@ -6443,19 +6443,19 @@
         <v>28519</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>20363</v>
+        <v>20901</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>38572</v>
+        <v>39581</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1963862226413909</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.140222855386809</v>
+        <v>0.1439249076808919</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2656082095211886</v>
+        <v>0.2725565773034714</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>32</v>
@@ -6464,19 +6464,19 @@
         <v>38227</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>26925</v>
+        <v>27870</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>49580</v>
+        <v>51107</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2395932916444897</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1687543974288892</v>
+        <v>0.1746768438658421</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3107503589537485</v>
+        <v>0.3203165816126772</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>63</v>
@@ -6485,19 +6485,19 @@
         <v>66747</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>53117</v>
+        <v>51913</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>81792</v>
+        <v>82394</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.219005494457423</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1742853023668143</v>
+        <v>0.1703357130423234</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2683707900734727</v>
+        <v>0.2703486929741896</v>
       </c>
     </row>
     <row r="22">
@@ -6514,19 +6514,19 @@
         <v>102044</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>91899</v>
+        <v>90336</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>112510</v>
+        <v>111521</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7026780262312116</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6328193965286204</v>
+        <v>0.6220606917810368</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.774750715416559</v>
+        <v>0.7679393852538595</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>100</v>
@@ -6535,19 +6535,19 @@
         <v>112290</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>100106</v>
+        <v>99862</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>124649</v>
+        <v>123190</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7037892279494442</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.627429748437449</v>
+        <v>0.6258975327542184</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7812537771089036</v>
+        <v>0.7721081639965457</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>212</v>
@@ -6556,19 +6556,19 @@
         <v>214333</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>197536</v>
+        <v>196903</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>229751</v>
+        <v>230197</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7032597498770655</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.648144428419039</v>
+        <v>0.6460682822818703</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7538490348847871</v>
+        <v>0.7553120712985738</v>
       </c>
     </row>
     <row r="23">
@@ -6669,19 +6669,19 @@
         <v>33221</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>21622</v>
+        <v>21908</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>47103</v>
+        <v>47651</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08042242055016198</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0523441077002849</v>
+        <v>0.0530354579848801</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1140273381162797</v>
+        <v>0.1153534681506465</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>26</v>
@@ -6690,19 +6690,19 @@
         <v>33221</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>21622</v>
+        <v>21908</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>47103</v>
+        <v>47651</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08042242055016198</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0523441077002849</v>
+        <v>0.0530354579848801</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1140273381162797</v>
+        <v>0.1153534681506465</v>
       </c>
     </row>
     <row r="25">
@@ -6728,19 +6728,19 @@
         <v>95361</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>77263</v>
+        <v>77712</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>114498</v>
+        <v>115638</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2308523959053885</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1870406853889953</v>
+        <v>0.1881269082385374</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2771792341811223</v>
+        <v>0.2799392060486229</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>75</v>
@@ -6749,19 +6749,19 @@
         <v>95361</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>77263</v>
+        <v>77712</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>114498</v>
+        <v>115638</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2308523959053885</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1870406853889953</v>
+        <v>0.1881269082385374</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2771792341811223</v>
+        <v>0.2799392060486229</v>
       </c>
     </row>
     <row r="26">
@@ -6787,19 +6787,19 @@
         <v>284501</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>263885</v>
+        <v>263674</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>305170</v>
+        <v>304628</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6887251835444496</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6388180129914339</v>
+        <v>0.6383073914378714</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7387628274831882</v>
+        <v>0.7374500177126212</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>246</v>
@@ -6808,19 +6808,19 @@
         <v>284501</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>263885</v>
+        <v>263674</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>305170</v>
+        <v>304628</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6887251835444496</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6388180129914339</v>
+        <v>0.6383073914378714</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7387628274831882</v>
+        <v>0.7374500177126212</v>
       </c>
     </row>
     <row r="27">
@@ -6900,19 +6900,19 @@
         <v>45882</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>34554</v>
+        <v>34604</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>60055</v>
+        <v>58111</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07759186349835058</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05843532478887632</v>
+        <v>0.05851911868917877</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1015590074953629</v>
+        <v>0.09827147408490799</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>39</v>
@@ -6921,19 +6921,19 @@
         <v>50105</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>35916</v>
+        <v>35698</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>66769</v>
+        <v>68375</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06487246547941194</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04650093594505513</v>
+        <v>0.04621870272215112</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0864475298615504</v>
+        <v>0.08852699056420688</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>90</v>
@@ -6942,19 +6942,19 @@
         <v>95987</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>77641</v>
+        <v>77758</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>116072</v>
+        <v>117894</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0703878871134274</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05693437012721686</v>
+        <v>0.05702054672870396</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08511611986352992</v>
+        <v>0.08645211869205903</v>
       </c>
     </row>
     <row r="29">
@@ -6971,19 +6971,19 @@
         <v>67342</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>54812</v>
+        <v>54213</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>84227</v>
+        <v>82250</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1138826360385054</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09269363809526537</v>
+        <v>0.09167925221786186</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1424363291012773</v>
+        <v>0.1390929004959765</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>144</v>
@@ -6992,19 +6992,19 @@
         <v>181203</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>155727</v>
+        <v>156742</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>207976</v>
+        <v>206110</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2346082722303092</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2016236037383451</v>
+        <v>0.2029376041673447</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2692714577589639</v>
+        <v>0.2668565458820535</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>219</v>
@@ -7013,19 +7013,19 @@
         <v>248545</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>220646</v>
+        <v>219825</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>278254</v>
+        <v>281984</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1822588776566723</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1618005075479354</v>
+        <v>0.1611987692703327</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2040445894865865</v>
+        <v>0.2067799801578981</v>
       </c>
     </row>
     <row r="30">
@@ -7042,19 +7042,19 @@
         <v>478104</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>460287</v>
+        <v>460615</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>496718</v>
+        <v>496080</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.808525500463144</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7783961473533758</v>
+        <v>0.7789496811252513</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8400044845095593</v>
+        <v>0.838925595324968</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>467</v>
@@ -7063,19 +7063,19 @@
         <v>541056</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>510550</v>
+        <v>513562</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>569904</v>
+        <v>567867</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.7005192622902788</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.6610226203851355</v>
+        <v>0.6649219171792439</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7378702993273738</v>
+        <v>0.7352323467132948</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>968</v>
@@ -7084,19 +7084,19 @@
         <v>1019160</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>983344</v>
+        <v>983623</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1051386</v>
+        <v>1052592</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.7473532352299003</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7210894620085032</v>
+        <v>0.7212939945883073</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.770985265369351</v>
+        <v>0.7718692045927786</v>
       </c>
     </row>
     <row r="31">
@@ -7430,19 +7430,19 @@
         <v>3174</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1139</v>
+        <v>1286</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6356</v>
+        <v>7115</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02636097490202987</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009460154918374129</v>
+        <v>0.01068311400468835</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05278763217771477</v>
+        <v>0.05909604567181887</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -7454,7 +7454,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8893</v>
+        <v>9638</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02971563823513734</v>
@@ -7463,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1192775865662226</v>
+        <v>0.1292714635084455</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -7472,19 +7472,19 @@
         <v>5389</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2323</v>
+        <v>2384</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12187</v>
+        <v>11387</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.02764390614421209</v>
+        <v>0.0276439061442121</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01191516737125801</v>
+        <v>0.01222768217764175</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06250773826913747</v>
+        <v>0.05840822595381313</v>
       </c>
     </row>
     <row r="5">
@@ -7501,19 +7501,19 @@
         <v>8216</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4673</v>
+        <v>4344</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13982</v>
+        <v>13680</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06823736209139018</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03880915686040705</v>
+        <v>0.0360794185321515</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1161247138576319</v>
+        <v>0.1136168919775002</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -7522,19 +7522,19 @@
         <v>11649</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7569</v>
+        <v>7422</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17303</v>
+        <v>17170</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1562337248621865</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.101522320283728</v>
+        <v>0.09954243225729016</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2320704170388563</v>
+        <v>0.2302907291857965</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>34</v>
@@ -7543,19 +7543,19 @@
         <v>19864</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>14423</v>
+        <v>14370</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>26704</v>
+        <v>26874</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1018900037388848</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07397808816537965</v>
+        <v>0.0737065047346423</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1369737306075156</v>
+        <v>0.1378422119148295</v>
       </c>
     </row>
     <row r="6">
@@ -7572,19 +7572,19 @@
         <v>109011</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>102908</v>
+        <v>103305</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>113311</v>
+        <v>113674</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9054016630065798</v>
+        <v>0.90540166300658</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8547116751707274</v>
+        <v>0.8580094504512387</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.941116138178399</v>
+        <v>0.9441258649311541</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>109</v>
@@ -7593,19 +7593,19 @@
         <v>60695</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>54629</v>
+        <v>54981</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>65741</v>
+        <v>65277</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.8140506369026763</v>
+        <v>0.8140506369026765</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7326907725438829</v>
+        <v>0.7374132291755749</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8817293752908978</v>
+        <v>0.875501801416168</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>261</v>
@@ -7614,19 +7614,19 @@
         <v>169706</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>161566</v>
+        <v>160805</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>176408</v>
+        <v>176075</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8704660901169031</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8287160055944031</v>
+        <v>0.824812273590953</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9048427487812126</v>
+        <v>0.9031319857757492</v>
       </c>
     </row>
     <row r="7">
@@ -7718,19 +7718,19 @@
         <v>5043</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2127</v>
+        <v>2544</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9893</v>
+        <v>9646</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04816120291570111</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02031036866763137</v>
+        <v>0.02429881265039813</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09447828971408703</v>
+        <v>0.09211231432842369</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -7739,19 +7739,19 @@
         <v>2250</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>602</v>
+        <v>638</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5459</v>
+        <v>5479</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04063217210603257</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01087403672392358</v>
+        <v>0.01152734458618388</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09855997984833227</v>
+        <v>0.09892214776951813</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>12</v>
@@ -7760,19 +7760,19 @@
         <v>7294</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4067</v>
+        <v>3633</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12821</v>
+        <v>12140</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.04555661961020517</v>
+        <v>0.04555661961020519</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02540397478207401</v>
+        <v>0.02269505490044978</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08007876476461047</v>
+        <v>0.07583050941755452</v>
       </c>
     </row>
     <row r="9">
@@ -7789,19 +7789,19 @@
         <v>9507</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5376</v>
+        <v>5415</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>15805</v>
+        <v>16094</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09078512325769753</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05133494251706019</v>
+        <v>0.05171187436669263</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1509380567087909</v>
+        <v>0.1536937274867171</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>21</v>
@@ -7810,19 +7810,19 @@
         <v>12210</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7598</v>
+        <v>7932</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17414</v>
+        <v>17790</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.220449089397464</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1371868420210687</v>
+        <v>0.1432163908657427</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3144107152672299</v>
+        <v>0.321199923964667</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>34</v>
@@ -7831,19 +7831,19 @@
         <v>21716</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>14989</v>
+        <v>15268</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>29164</v>
+        <v>29823</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1356409101537127</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09362457052980871</v>
+        <v>0.09536521025708201</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1821620926694715</v>
+        <v>0.1862777096556821</v>
       </c>
     </row>
     <row r="10">
@@ -7860,19 +7860,19 @@
         <v>90165</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>83443</v>
+        <v>83068</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>95237</v>
+        <v>95231</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8610536738266015</v>
+        <v>0.8610536738266014</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7968563003583895</v>
+        <v>0.7932774463380863</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9094882364552384</v>
+        <v>0.9094315404667177</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>73</v>
@@ -7881,19 +7881,19 @@
         <v>40925</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35386</v>
+        <v>35335</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45664</v>
+        <v>45621</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7389187384965034</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6389077168134984</v>
+        <v>0.637988858616365</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8244836495684768</v>
+        <v>0.8237098619728509</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>199</v>
@@ -7902,19 +7902,19 @@
         <v>131090</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>123562</v>
+        <v>122667</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>138386</v>
+        <v>138085</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8188024702360819</v>
+        <v>0.818802470236082</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7717828126981144</v>
+        <v>0.766188623667198</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8643712075210728</v>
+        <v>0.8624934635623442</v>
       </c>
     </row>
     <row r="11">
@@ -8006,19 +8006,19 @@
         <v>5504</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2794</v>
+        <v>2726</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10037</v>
+        <v>9853</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04893617645431023</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02484227135507002</v>
+        <v>0.02423632866035848</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08923815484390413</v>
+        <v>0.08760432985593114</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -8027,19 +8027,19 @@
         <v>4543</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2277</v>
+        <v>2138</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8817</v>
+        <v>8158</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07914793111069694</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03966258971820555</v>
+        <v>0.03725345824099384</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.153604907198059</v>
+        <v>0.1421181791930438</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>19</v>
@@ -8048,19 +8048,19 @@
         <v>10047</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6291</v>
+        <v>6390</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>15532</v>
+        <v>15045</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05914503357495664</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0370328423141842</v>
+        <v>0.03761871379593879</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09143327010628861</v>
+        <v>0.08856576232386978</v>
       </c>
     </row>
     <row r="13">
@@ -8077,19 +8077,19 @@
         <v>14264</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8759</v>
+        <v>9214</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20402</v>
+        <v>21017</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1268200606987263</v>
+        <v>0.1268200606987264</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07787474130746536</v>
+        <v>0.08192670039570638</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.181399731366163</v>
+        <v>0.1868694819145159</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -8098,19 +8098,19 @@
         <v>15680</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10815</v>
+        <v>10670</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21023</v>
+        <v>21719</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.273159583583826</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1884114257791187</v>
+        <v>0.1858819522091814</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3662339969127409</v>
+        <v>0.3783725750376518</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>48</v>
@@ -8119,19 +8119,19 @@
         <v>29943</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>22596</v>
+        <v>22620</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>39467</v>
+        <v>37862</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1762696639153911</v>
+        <v>0.1762696639153912</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1330177291877339</v>
+        <v>0.1331606188020216</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2323340745267553</v>
+        <v>0.2228856297581835</v>
       </c>
     </row>
     <row r="14">
@@ -8148,19 +8148,19 @@
         <v>92704</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>85923</v>
+        <v>85132</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>98745</v>
+        <v>98412</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8242437628469632</v>
+        <v>0.8242437628469634</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7639594851942642</v>
+        <v>0.7569241457131024</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8779563120183884</v>
+        <v>0.8749965777940161</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>70</v>
@@ -8169,19 +8169,19 @@
         <v>37179</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>31541</v>
+        <v>31014</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>41674</v>
+        <v>42570</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6476924853054771</v>
+        <v>0.6476924853054772</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5494700032092766</v>
+        <v>0.5402931797680238</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7260047720846894</v>
+        <v>0.7416117692750901</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>202</v>
@@ -8190,19 +8190,19 @@
         <v>129882</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>118529</v>
+        <v>121468</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>137909</v>
+        <v>137963</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7645853025096522</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6977530981652496</v>
+        <v>0.7150495413176942</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8118378326280828</v>
+        <v>0.8121536915717835</v>
       </c>
     </row>
     <row r="15">
@@ -8294,19 +8294,19 @@
         <v>26111</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18489</v>
+        <v>18863</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>36074</v>
+        <v>35885</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1006787515525644</v>
+        <v>0.1006787515525643</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07128861922019923</v>
+        <v>0.07273126298742638</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1390920209207213</v>
+        <v>0.1383627294258687</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -8315,19 +8315,19 @@
         <v>14154</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10032</v>
+        <v>9173</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19650</v>
+        <v>19107</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1081475707260408</v>
+        <v>0.1081475707260407</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07665313544072259</v>
+        <v>0.07008696083561593</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.150139978257644</v>
+        <v>0.1459879120253191</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>67</v>
@@ -8336,19 +8336,19 @@
         <v>40266</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30836</v>
+        <v>31004</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>50413</v>
+        <v>51296</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1031837125138391</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07901969988285629</v>
+        <v>0.07945014069059506</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1291862315957618</v>
+        <v>0.1314500941280214</v>
       </c>
     </row>
     <row r="17">
@@ -8365,19 +8365,19 @@
         <v>41892</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>33037</v>
+        <v>33707</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>52651</v>
+        <v>53215</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.161525456062953</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1273829536981171</v>
+        <v>0.1299669018017061</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2030098658564469</v>
+        <v>0.2051834789426095</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>46</v>
@@ -8386,19 +8386,19 @@
         <v>22595</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17017</v>
+        <v>16998</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29127</v>
+        <v>29396</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1726363722516591</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.130023453438305</v>
+        <v>0.1298717952549105</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2225435979931736</v>
+        <v>0.2245990441408739</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>107</v>
@@ -8407,19 +8407,19 @@
         <v>64487</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>53077</v>
+        <v>53720</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>76956</v>
+        <v>76829</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1652519368693894</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1360132671274399</v>
+        <v>0.1376610366682186</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1972061413992728</v>
+        <v>0.1968791333493359</v>
       </c>
     </row>
     <row r="18">
@@ -8436,19 +8436,19 @@
         <v>191350</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>179505</v>
+        <v>178181</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>203106</v>
+        <v>201977</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.7377957923844827</v>
+        <v>0.7377957923844826</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6921252613810397</v>
+        <v>0.6870194077868027</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7831266138398658</v>
+        <v>0.7787710338718278</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>185</v>
@@ -8457,19 +8457,19 @@
         <v>94131</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>86981</v>
+        <v>87050</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>100959</v>
+        <v>101460</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7192160570223001</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6645889593245132</v>
+        <v>0.6651168965769906</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7713880661598976</v>
+        <v>0.7752130400275343</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>455</v>
@@ -8478,19 +8478,19 @@
         <v>285481</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>271693</v>
+        <v>269744</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>301153</v>
+        <v>298292</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7315643506167716</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6962319011982169</v>
+        <v>0.6912386245104492</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7717270343336322</v>
+        <v>0.7643950386722677</v>
       </c>
     </row>
     <row r="19">
@@ -8582,19 +8582,19 @@
         <v>9299</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5838</v>
+        <v>5617</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14148</v>
+        <v>14168</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09300974394298299</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05838939758914214</v>
+        <v>0.05618249001982991</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1415059271832989</v>
+        <v>0.1417090894395099</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>68</v>
@@ -8603,19 +8603,19 @@
         <v>32415</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>25195</v>
+        <v>25813</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>40851</v>
+        <v>40149</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1471777797501988</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.114394446429948</v>
+        <v>0.1172009245698031</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1854807398720816</v>
+        <v>0.1822924354010824</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>87</v>
@@ -8624,19 +8624,19 @@
         <v>41714</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>33011</v>
+        <v>34623</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>50978</v>
+        <v>51964</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1302651467003313</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1030859789650232</v>
+        <v>0.1081199694032223</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1591925780780749</v>
+        <v>0.1622728250154968</v>
       </c>
     </row>
     <row r="21">
@@ -8653,19 +8653,19 @@
         <v>16198</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11043</v>
+        <v>10465</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>23053</v>
+        <v>22341</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1620088609260254</v>
+        <v>0.1620088609260255</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1104476060563309</v>
+        <v>0.1046707410088328</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2305692925040748</v>
+        <v>0.2234490386937034</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>106</v>
@@ -8674,19 +8674,19 @@
         <v>52154</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>42648</v>
+        <v>43596</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>61154</v>
+        <v>61125</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2368023336418895</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1936412738873233</v>
+        <v>0.1979438089230612</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2776659967154633</v>
+        <v>0.2775318722574401</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>131</v>
@@ -8695,19 +8695,19 @@
         <v>68352</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>58245</v>
+        <v>58240</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>79932</v>
+        <v>79752</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2134499166727629</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.181886750565504</v>
+        <v>0.1818714578900263</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2496119000536071</v>
+        <v>0.2490493425270366</v>
       </c>
     </row>
     <row r="22">
@@ -8724,19 +8724,19 @@
         <v>74485</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>66612</v>
+        <v>67348</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>80736</v>
+        <v>81647</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.7449813951309915</v>
+        <v>0.7449813951309916</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.666231966521717</v>
+        <v>0.6735911798293962</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.80749439407237</v>
+        <v>0.8166071500700909</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>269</v>
@@ -8745,19 +8745,19 @@
         <v>135675</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>125407</v>
+        <v>125204</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>145801</v>
+        <v>145963</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6160198866079117</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5693988424008021</v>
+        <v>0.5684767896078435</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.661998524337561</v>
+        <v>0.6627342077066262</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>372</v>
@@ -8766,19 +8766,19 @@
         <v>210160</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>195843</v>
+        <v>195762</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>222642</v>
+        <v>221857</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6562849366269059</v>
+        <v>0.6562849366269058</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6115765486984093</v>
+        <v>0.6113231615990157</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6952645848765328</v>
+        <v>0.6928131899483121</v>
       </c>
     </row>
     <row r="23">
@@ -8873,7 +8873,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2661</v>
+        <v>2602</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3129487968036082</v>
@@ -8882,7 +8882,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8121688494667791</v>
+        <v>0.7942307811923641</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>85</v>
@@ -8891,19 +8891,19 @@
         <v>50072</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>39878</v>
+        <v>39725</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>60970</v>
+        <v>62397</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.1448078816832161</v>
+        <v>0.1448078816832162</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1153277776753972</v>
+        <v>0.1148833757268446</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1763234828944862</v>
+        <v>0.1804518810814833</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>87</v>
@@ -8912,19 +8912,19 @@
         <v>51097</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>40887</v>
+        <v>41661</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>61723</v>
+        <v>62706</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1463859987789533</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1171350571026237</v>
+        <v>0.1193516610772089</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1768256692468595</v>
+        <v>0.1796415517720964</v>
       </c>
     </row>
     <row r="25">
@@ -8944,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2751</v>
+        <v>2364</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3597968123493643</v>
@@ -8953,7 +8953,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8396003799107717</v>
+        <v>0.7214874782328138</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>155</v>
@@ -8962,19 +8962,19 @@
         <v>83893</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>73456</v>
+        <v>71488</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>97258</v>
+        <v>96347</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2426180476961365</v>
+        <v>0.2426180476961366</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2124328681272165</v>
+        <v>0.2067409711250647</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2812702820347986</v>
+        <v>0.2786356145553129</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>157</v>
@@ -8983,19 +8983,19 @@
         <v>85072</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>73715</v>
+        <v>73549</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>96645</v>
+        <v>97412</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2437178502731845</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2111813696368003</v>
+        <v>0.2107055530399591</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2768719632493616</v>
+        <v>0.2790712044501982</v>
       </c>
     </row>
     <row r="26">
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2707</v>
+        <v>2656</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3272543908470275</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8263712328659629</v>
+        <v>0.8107743771354606</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>396</v>
@@ -9033,19 +9033,19 @@
         <v>211818</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>198298</v>
+        <v>197074</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>225467</v>
+        <v>225523</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.6125740706206473</v>
+        <v>0.6125740706206474</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.573474188328877</v>
+        <v>0.5699354359586445</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6520465211738901</v>
+        <v>0.6522108898550377</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>398</v>
@@ -9054,19 +9054,19 @@
         <v>212890</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>199512</v>
+        <v>200577</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>226571</v>
+        <v>227307</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6098961509478622</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5715714009096845</v>
+        <v>0.5746213071803954</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6490895138116626</v>
+        <v>0.6511993950878693</v>
       </c>
     </row>
     <row r="27">
@@ -9158,19 +9158,19 @@
         <v>50157</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>39556</v>
+        <v>40378</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>62577</v>
+        <v>61613</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.07163244123072839</v>
+        <v>0.07163244123072837</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05649289135517098</v>
+        <v>0.05766698670641619</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0893700572378061</v>
+        <v>0.08799363359195217</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>196</v>
@@ -9179,19 +9179,19 @@
         <v>105651</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>91615</v>
+        <v>91892</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>121817</v>
+        <v>121795</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1194802108794738</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1036076237908937</v>
+        <v>0.1039203742562639</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1377627389362804</v>
+        <v>0.1377384438426479</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>280</v>
@@ -9200,19 +9200,19 @@
         <v>155808</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>137648</v>
+        <v>138868</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>174622</v>
+        <v>174534</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09833536875676113</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0868740602829189</v>
+        <v>0.0876438732412041</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1102098460081045</v>
+        <v>0.110153979728519</v>
       </c>
     </row>
     <row r="29">
@@ -9229,19 +9229,19 @@
         <v>91255</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>77500</v>
+        <v>76786</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>106931</v>
+        <v>106056</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1303271592998492</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1106826763018203</v>
+        <v>0.1096627080835472</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1527148877787828</v>
+        <v>0.1514647016234031</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>375</v>
@@ -9250,19 +9250,19 @@
         <v>198180</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>179725</v>
+        <v>181038</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>218290</v>
+        <v>216152</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.2241216535739692</v>
+        <v>0.2241216535739691</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2032505348252902</v>
+        <v>0.2047362211395393</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2468644504925814</v>
+        <v>0.2444460149575391</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>511</v>
@@ -9271,19 +9271,19 @@
         <v>289435</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>264434</v>
+        <v>263723</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>313368</v>
+        <v>312680</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1826720773875492</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1668932514707685</v>
+        <v>0.1664445764566212</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1977765997524622</v>
+        <v>0.1973429072331634</v>
       </c>
     </row>
     <row r="30">
@@ -9300,19 +9300,19 @@
         <v>558788</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>539762</v>
+        <v>540538</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>574843</v>
+        <v>575872</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.7980403994694224</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7708678255865553</v>
+        <v>0.771976117549927</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8209697330458777</v>
+        <v>0.8224388642940279</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1102</v>
@@ -9321,19 +9321,19 @@
         <v>580421</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>558149</v>
+        <v>559336</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>600611</v>
+        <v>601901</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.6563981355465573</v>
+        <v>0.656398135546557</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.631210759101374</v>
+        <v>0.6325522685303671</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6792302098701287</v>
+        <v>0.6806892678535152</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1887</v>
@@ -9342,19 +9342,19 @@
         <v>1139209</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1110822</v>
+        <v>1110267</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1167039</v>
+        <v>1168575</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.7189925538556897</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7010763966938092</v>
+        <v>0.7007260880083007</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.7365568307316273</v>
+        <v>0.7375264233009677</v>
       </c>
     </row>
     <row r="31">
